--- a/Data/Osteomyelitis_PVD_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_PVD_Mortality_Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9461655-1A2C-B843-B776-397AFD16F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE117F3D-6B4E-404F-9F27-4244F2B0FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16960" activeTab="1" xr2:uid="{0AD2C19D-548B-7C4D-A731-501BB003FDAD}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,6 +406,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -750,8 +756,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2131,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1B60D-26AA-3E43-9061-E8E23847D1B4}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,307 +2164,349 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2">
-        <v>0.09</v>
-      </c>
-      <c r="C2">
-        <v>0.08</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
+      <c r="B2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.08</v>
-      </c>
-      <c r="D3">
-        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.09</v>
-      </c>
-      <c r="D4">
-        <v>0.12</v>
+      <c r="B4" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.09</v>
-      </c>
-      <c r="D5">
-        <v>0.11</v>
+      <c r="B5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6">
-        <v>0.12</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>0.13</v>
+      <c r="B6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>0.09</v>
-      </c>
-      <c r="D7">
-        <v>0.11</v>
+      <c r="B7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8">
-        <v>0.11</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
         <v>0.09</v>
       </c>
-      <c r="D8">
-        <v>0.12</v>
+      <c r="C8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>0.09</v>
-      </c>
-      <c r="D9">
-        <v>0.11</v>
+      <c r="B9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.09</v>
-      </c>
-      <c r="D10">
-        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11">
-        <v>0.09</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.08</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12">
-        <v>0.09</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.08</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13">
-        <v>0.09</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.08</v>
-      </c>
-      <c r="D13">
-        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>0.09</v>
-      </c>
-      <c r="D14">
-        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15">
-        <v>0.11</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.09</v>
-      </c>
-      <c r="D15">
-        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.11</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="D16">
-        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17">
-        <v>0.12</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.11</v>
-      </c>
-      <c r="D17">
-        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.12</v>
-      </c>
-      <c r="C18">
-        <v>0.11</v>
-      </c>
-      <c r="D18">
-        <v>0.13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.13</v>
-      </c>
-      <c r="D19">
-        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
         <v>0.13</v>
       </c>
-      <c r="D20">
-        <v>0.16</v>
+      <c r="C20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21">
-        <v>0.15</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.13</v>
-      </c>
-      <c r="D21">
-        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22">
-        <v>0.2</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
         <v>0.19</v>
       </c>
-      <c r="D22">
-        <v>0.22</v>
+      <c r="C22" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>0.21</v>
+      </c>
+      <c r="C24">
+        <v>0.19</v>
+      </c>
+      <c r="D24">
         <v>0.22</v>
       </c>
-      <c r="C23">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>0.22</v>
+      </c>
+      <c r="C25">
         <v>0.2</v>
       </c>
-      <c r="D23">
+      <c r="D25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>0.21</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
         <v>0.23</v>
       </c>
     </row>

--- a/Data/Osteomyelitis_PVD_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_PVD_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE117F3D-6B4E-404F-9F27-4244F2B0FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2DA3A6-353A-B143-9B02-123C14B7EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16960" activeTab="1" xr2:uid="{0AD2C19D-548B-7C4D-A731-501BB003FDAD}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{0AD2C19D-548B-7C4D-A731-501BB003FDAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2165,7 +2165,7 @@
         <v>1999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2179,7 +2179,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C3" s="1">
         <v>0.06</v>
@@ -2193,7 +2193,7 @@
         <v>2001</v>
       </c>
       <c r="B4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C4" s="1">
         <v>0.06</v>
@@ -2207,7 +2207,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="1">
         <v>0.06</v>
@@ -2221,7 +2221,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2235,7 +2235,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C7" s="1">
         <v>0.06</v>
@@ -2249,7 +2249,7 @@
         <v>2005</v>
       </c>
       <c r="B8" s="1">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C8" s="1">
         <v>0.08</v>
@@ -2263,7 +2263,7 @@
         <v>2006</v>
       </c>
       <c r="B9" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C9" s="1">
         <v>0.06</v>
@@ -2277,7 +2277,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2291,7 +2291,7 @@
         <v>2008</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="1">
         <v>0.06</v>
@@ -2305,7 +2305,7 @@
         <v>2009</v>
       </c>
       <c r="B12" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C12" s="1">
         <v>0.06</v>
@@ -2319,7 +2319,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C13" s="1">
         <v>0.06</v>
@@ -2333,7 +2333,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="1">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C14" s="1">
         <v>0.08</v>
@@ -2347,7 +2347,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2361,7 +2361,7 @@
         <v>2013</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C16" s="1">
         <v>0.09</v>
@@ -2375,7 +2375,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C17" s="1">
         <v>0.09</v>
@@ -2389,7 +2389,7 @@
         <v>2015</v>
       </c>
       <c r="B18" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C18" s="1">
         <v>0.1</v>
@@ -2403,7 +2403,7 @@
         <v>2016</v>
       </c>
       <c r="B19" s="1">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C19" s="1">
         <v>0.12</v>
@@ -2417,7 +2417,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="1">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C20" s="1">
         <v>0.12</v>
@@ -2431,7 +2431,7 @@
         <v>2018</v>
       </c>
       <c r="B21" s="1">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="C21" s="1">
         <v>0.11</v>
@@ -2445,7 +2445,7 @@
         <v>2019</v>
       </c>
       <c r="B22" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="C22" s="1">
         <v>0.18</v>
@@ -2459,7 +2459,7 @@
         <v>2020</v>
       </c>
       <c r="B23" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="C23" s="1">
         <v>0.18</v>
@@ -2472,8 +2472,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24">
-        <v>0.21</v>
+      <c r="B24" s="1">
+        <v>0.26</v>
       </c>
       <c r="C24">
         <v>0.19</v>
@@ -2486,8 +2486,8 @@
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25">
-        <v>0.22</v>
+      <c r="B25" s="1">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C25">
         <v>0.2</v>
@@ -2500,8 +2500,8 @@
       <c r="A26">
         <v>2023</v>
       </c>
-      <c r="B26">
-        <v>0.21</v>
+      <c r="B26" s="1">
+        <v>0.27</v>
       </c>
       <c r="C26">
         <v>0.2</v>
